--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3702678.722783819</v>
+        <v>3698583.081279054</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>303.0301627860084</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6930507761477</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945202867366326</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.1926570617461</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>378.7992201884443</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>69.63957399764126</v>
+        <v>119.2060850132418</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>220.3091963090871</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6667577510700857</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>77.79094160368506</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>281.5124384757299</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560558</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>228.9553704673032</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.4116053749673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073366</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064667</v>
       </c>
       <c r="V19" t="n">
-        <v>80.70399854267949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>109.1623230749908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.24096871741</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>72.97607332171654</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>223.6233581343926</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>79.70119244397746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1113.627677512999</v>
+        <v>768.3237648788313</v>
       </c>
       <c r="C2" t="n">
-        <v>1113.627677512999</v>
+        <v>768.3237648788313</v>
       </c>
       <c r="D2" t="n">
-        <v>1113.627677512999</v>
+        <v>768.3237648788313</v>
       </c>
       <c r="E2" t="n">
-        <v>727.8394249147543</v>
+        <v>768.3237648788313</v>
       </c>
       <c r="F2" t="n">
-        <v>316.8535201251468</v>
+        <v>357.3378600892237</v>
       </c>
       <c r="G2" t="n">
-        <v>305.1891738898397</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087292</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.22751757712</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1500.22751757712</v>
+        <v>1154.923604942953</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844939</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1255.964208110239</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>897.6985095034886</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>511.9102569052444</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154229</v>
+        <v>1624.926725050651</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2193.450786296771</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182921</v>
+        <v>655.4695685676043</v>
       </c>
       <c r="C7" t="n">
-        <v>734.4959357903853</v>
+        <v>486.5333856396974</v>
       </c>
       <c r="D7" t="n">
-        <v>584.3792963780495</v>
+        <v>486.5333856396974</v>
       </c>
       <c r="E7" t="n">
-        <v>436.4662027956564</v>
+        <v>486.5333856396974</v>
       </c>
       <c r="F7" t="n">
-        <v>289.576255297746</v>
+        <v>339.643438141787</v>
       </c>
       <c r="G7" t="n">
-        <v>121.5897906060246</v>
+        <v>171.6569734500656</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.862713590079</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>837.118033397844</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3324.932328931323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3324.932328931323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.401852205159</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3071.401852205159</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2123.581982160438</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>1954.645799232531</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>1954.645799232531</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>1954.645799232531</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3044.089480193526</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>2822.322864763052</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>2533.219997888695</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>2533.219997888695</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>2533.219997888695</v>
+        <v>1553.108092385688</v>
       </c>
       <c r="X10" t="n">
-        <v>2305.230446990678</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y10" t="n">
-        <v>2305.230446990678</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5065,25 +5065,25 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C16" t="n">
-        <v>763.7541388327652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>613.6374994204294</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1606.866663407555</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1317.449493370594</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1089.459942472577</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>868.6673633290469</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6767,37 +6767,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558404</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630497</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630497</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630497</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630497</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345377</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532174</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388644</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.578900576778</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.894412370891</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1353.195110654903</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105.1672460959154</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>231.2582814363241</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.454437538930108</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194098</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.02235727160183</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.6630665685105</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>220.7351665485975</v>
       </c>
       <c r="V19" t="n">
-        <v>171.4336447811485</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>103.8640922513198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>62.5611162548515</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>72.11969353038562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.8218058926136</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710699</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055063</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
@@ -26349,10 +26349,10 @@
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819044</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551196</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744162</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744166</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,25 +26441,25 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744342</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.25639174442</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563222.0116216777</v>
+        <v>-563222.0116216778</v>
       </c>
       <c r="C6" t="n">
-        <v>551529.7719542417</v>
+        <v>551529.771954242</v>
       </c>
       <c r="D6" t="n">
-        <v>391514.3092062421</v>
+        <v>391514.3092062422</v>
       </c>
       <c r="E6" t="n">
-        <v>331527.0216824991</v>
+        <v>331179.6424281419</v>
       </c>
       <c r="F6" t="n">
-        <v>656939.4834898543</v>
+        <v>656592.1042354982</v>
       </c>
       <c r="G6" t="n">
-        <v>656939.4834898547</v>
+        <v>656592.1042354978</v>
       </c>
       <c r="H6" t="n">
-        <v>656939.4834898544</v>
+        <v>656592.104235498</v>
       </c>
       <c r="I6" t="n">
-        <v>656939.4834898546</v>
+        <v>656592.1042354977</v>
       </c>
       <c r="J6" t="n">
-        <v>489334.305679872</v>
+        <v>488986.9264255149</v>
       </c>
       <c r="K6" t="n">
-        <v>656939.4834898545</v>
+        <v>656592.1042354975</v>
       </c>
       <c r="L6" t="n">
-        <v>608645.5134816639</v>
+        <v>608298.1342273069</v>
       </c>
       <c r="M6" t="n">
-        <v>571884.4555543426</v>
+        <v>571537.0762999856</v>
       </c>
       <c r="N6" t="n">
-        <v>656939.4834898546</v>
+        <v>656592.1042354974</v>
       </c>
       <c r="O6" t="n">
-        <v>656939.4834898544</v>
+        <v>656592.1042354973</v>
       </c>
       <c r="P6" t="n">
-        <v>656939.4834898546</v>
+        <v>656592.1042354977</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973562</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>108.5175399869456</v>
       </c>
       <c r="H2" t="n">
-        <v>115.3255017862576</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>216.8034931298456</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.5411846017344</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.0768255532671</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.61193515748761</v>
+        <v>28.04542414188704</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,16 +27830,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>108.5210040371058</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>67.63010641924619</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>5.010559860861122</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.563168251139988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>536.8001439125369</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>640.2652944187043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32727,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.537151478685</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,13 +33997,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4622569139906</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>402.8476067337655</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>566.6829634324471</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>256.1339666624623</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>394.6661099905186</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1312604966861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342406</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.6208179396316</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698583.081279054</v>
+        <v>3700343.611581838</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>303.0301627860084</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>238.9031699608859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.4286753102821</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483592</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>378.7992201884443</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>25.36158855179523</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>119.2060850132418</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>258.1817299793136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>220.3091963090871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>183.1642512458447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U16" t="n">
-        <v>82.52140782073366</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>65.44930784064667</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>11.81332727248867</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>768.3237648788313</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C2" t="n">
-        <v>768.3237648788313</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D2" t="n">
-        <v>768.3237648788313</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="E2" t="n">
-        <v>768.3237648788313</v>
+        <v>1119.253774927146</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3378600892237</v>
+        <v>708.2678701375385</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>292.5631198618273</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.923604942953</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1356.662031458481</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1356.662031458481</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.926725050651</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.964208110239</v>
+        <v>757.7992423756284</v>
       </c>
       <c r="D5" t="n">
-        <v>897.6985095034886</v>
+        <v>399.5335437688779</v>
       </c>
       <c r="E5" t="n">
-        <v>511.9102569052444</v>
+        <v>399.5335437688779</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>392.5880430196744</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>380.9236967843674</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>76.86455278193768</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.926725050651</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.926725050651</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.4695685676043</v>
+        <v>683.7982798220356</v>
       </c>
       <c r="C7" t="n">
-        <v>486.5333856396974</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="D7" t="n">
-        <v>486.5333856396974</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E7" t="n">
-        <v>486.5333856396974</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>339.643438141787</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>171.6569734500656</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1375.656493832766</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1375.656493832766</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>1086.239323795805</v>
       </c>
       <c r="X7" t="n">
-        <v>1057.910612541374</v>
+        <v>1086.239323795805</v>
       </c>
       <c r="Y7" t="n">
-        <v>837.118033397844</v>
+        <v>865.4467446522754</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279064</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740689</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1894.106123115829</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1639.421634909942</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1350.004464872981</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1122.014913974964</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2223348314336</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5980,43 +5980,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7326,10 +7326,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>129.7511347056859</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194098</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U16" t="n">
-        <v>203.6630665685105</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>220.7351665485975</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>206.7713260796061</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710699</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744162</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744166</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744257</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26444,7 +26444,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26453,13 +26453,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-563222.0116216778</v>
       </c>
       <c r="C6" t="n">
-        <v>551529.771954242</v>
+        <v>551529.7719542419</v>
       </c>
       <c r="D6" t="n">
-        <v>391514.3092062422</v>
+        <v>391514.309206242</v>
       </c>
       <c r="E6" t="n">
-        <v>331179.6424281419</v>
+        <v>331492.2837570636</v>
       </c>
       <c r="F6" t="n">
-        <v>656592.1042354982</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="G6" t="n">
-        <v>656592.1042354978</v>
+        <v>656904.745564419</v>
       </c>
       <c r="H6" t="n">
-        <v>656592.104235498</v>
+        <v>656904.7455644187</v>
       </c>
       <c r="I6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="J6" t="n">
-        <v>488986.9264255149</v>
+        <v>489299.5677544363</v>
       </c>
       <c r="K6" t="n">
-        <v>656592.1042354975</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="L6" t="n">
-        <v>608298.1342273069</v>
+        <v>608610.775556228</v>
       </c>
       <c r="M6" t="n">
-        <v>571537.0762999856</v>
+        <v>571849.7176289069</v>
       </c>
       <c r="N6" t="n">
-        <v>656592.1042354974</v>
+        <v>656904.7455644186</v>
       </c>
       <c r="O6" t="n">
-        <v>656592.1042354973</v>
+        <v>656904.7455644187</v>
       </c>
       <c r="P6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644188</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5175399869456</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>62.11538260151943</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>19.23378505145536</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>28.0768255532671</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.34832412067527</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.04542414188704</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.045424141887</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186.5668494326243</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>67.83092071305725</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.563168251139988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34453,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>566.6829634324471</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35017,13 +35017,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>316.3386309491707</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
